--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Quarterly Results of COFORGE LIMITED(in Rs. Cr.)</t>
   </si>
@@ -212,6 +212,141 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>333.75</t>
+  </si>
+  <si>
+    <t>328.35</t>
+  </si>
+  <si>
+    <t>322.11</t>
+  </si>
+  <si>
+    <t>331.64</t>
+  </si>
+  <si>
+    <t>319.20</t>
+  </si>
+  <si>
+    <t>332.15</t>
+  </si>
+  <si>
+    <t>363.10</t>
+  </si>
+  <si>
+    <t>361.73</t>
+  </si>
+  <si>
+    <t>372.62</t>
+  </si>
+  <si>
+    <t>381.04</t>
+  </si>
+  <si>
+    <t>352.42</t>
+  </si>
+  <si>
+    <t>367.82</t>
+  </si>
+  <si>
+    <t>385.84</t>
+  </si>
+  <si>
+    <t>383.00</t>
+  </si>
+  <si>
+    <t>458.50</t>
+  </si>
+  <si>
+    <t>404.60</t>
+  </si>
+  <si>
+    <t>418.90</t>
+  </si>
+  <si>
+    <t>412.20</t>
+  </si>
+  <si>
+    <t>410.20</t>
+  </si>
+  <si>
+    <t>444.80</t>
+  </si>
+  <si>
+    <t>485.20</t>
+  </si>
+  <si>
+    <t>521.40</t>
+  </si>
+  <si>
+    <t>547.80</t>
+  </si>
+  <si>
+    <t>538.20</t>
+  </si>
+  <si>
+    <t>544.10</t>
+  </si>
+  <si>
+    <t>590.60</t>
+  </si>
+  <si>
+    <t>558.10</t>
+  </si>
+  <si>
+    <t>576.50</t>
+  </si>
+  <si>
+    <t>608.40</t>
+  </si>
+  <si>
+    <t>612.30</t>
+  </si>
+  <si>
+    <t>615.20</t>
+  </si>
+  <si>
+    <t>736.90</t>
+  </si>
+  <si>
+    <t>75.20</t>
+  </si>
+  <si>
+    <t>879.90</t>
+  </si>
+  <si>
+    <t>884.30</t>
+  </si>
+  <si>
+    <t>971.90</t>
+  </si>
+  <si>
+    <t>1,043.90</t>
+  </si>
+  <si>
+    <t>1,088.00</t>
+  </si>
+  <si>
+    <t>1,126.70</t>
+  </si>
+  <si>
+    <t>1,140.30</t>
+  </si>
+  <si>
+    <t>1,219.20</t>
+  </si>
+  <si>
+    <t>1,264.60</t>
+  </si>
+  <si>
+    <t>1,224.80</t>
+  </si>
+  <si>
+    <t>1,209.50</t>
+  </si>
+  <si>
+    <t>1,325.80</t>
   </si>
 </sst>
 </file>
@@ -644,8 +779,8 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>333.75</v>
+      <c r="B2" t="s">
+        <v>66</v>
       </c>
       <c r="C2">
         <v>333.75</v>
@@ -709,8 +844,8 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>328.35</v>
+      <c r="B3" t="s">
+        <v>67</v>
       </c>
       <c r="C3">
         <v>328.35</v>
@@ -774,8 +909,8 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>322.11</v>
+      <c r="B4" t="s">
+        <v>68</v>
       </c>
       <c r="C4">
         <v>322.11</v>
@@ -839,8 +974,8 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>331.64</v>
+      <c r="B5" t="s">
+        <v>69</v>
       </c>
       <c r="C5">
         <v>331.64</v>
@@ -904,8 +1039,8 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>319.2</v>
+      <c r="B6" t="s">
+        <v>70</v>
       </c>
       <c r="C6">
         <v>319.2</v>
@@ -969,8 +1104,8 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>332.15</v>
+      <c r="B7" t="s">
+        <v>71</v>
       </c>
       <c r="C7">
         <v>332.15</v>
@@ -1034,8 +1169,8 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>363.1</v>
+      <c r="B8" t="s">
+        <v>72</v>
       </c>
       <c r="C8">
         <v>363.1</v>
@@ -1099,8 +1234,8 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>361.73</v>
+      <c r="B9" t="s">
+        <v>73</v>
       </c>
       <c r="C9">
         <v>361.73</v>
@@ -1164,8 +1299,8 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>372.62</v>
+      <c r="B10" t="s">
+        <v>74</v>
       </c>
       <c r="C10">
         <v>372.62</v>
@@ -1229,8 +1364,8 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>381.04</v>
+      <c r="B11" t="s">
+        <v>75</v>
       </c>
       <c r="C11">
         <v>381.04</v>
@@ -1294,8 +1429,8 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
-        <v>352.42</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
       <c r="C12">
         <v>352.42</v>
@@ -1359,8 +1494,8 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
-        <v>367.82</v>
+      <c r="B13" t="s">
+        <v>77</v>
       </c>
       <c r="C13">
         <v>367.82</v>
@@ -1424,8 +1559,8 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
-        <v>385.84</v>
+      <c r="B14" t="s">
+        <v>78</v>
       </c>
       <c r="C14">
         <v>385.84</v>
@@ -1489,8 +1624,8 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>383</v>
+      <c r="B15" t="s">
+        <v>79</v>
       </c>
       <c r="C15">
         <v>383</v>
@@ -1554,8 +1689,8 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>458.5</v>
+      <c r="B16" t="s">
+        <v>80</v>
       </c>
       <c r="C16">
         <v>458.5</v>
@@ -1619,8 +1754,8 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
-        <v>404.6</v>
+      <c r="B17" t="s">
+        <v>81</v>
       </c>
       <c r="C17">
         <v>404.6</v>
@@ -1684,8 +1819,8 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
-        <v>418.9</v>
+      <c r="B18" t="s">
+        <v>82</v>
       </c>
       <c r="C18">
         <v>418.9</v>
@@ -1749,8 +1884,8 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
-        <v>412.2</v>
+      <c r="B19" t="s">
+        <v>83</v>
       </c>
       <c r="C19">
         <v>412.2</v>
@@ -1814,8 +1949,8 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
-        <v>410.2</v>
+      <c r="B20" t="s">
+        <v>84</v>
       </c>
       <c r="C20">
         <v>410.2</v>
@@ -1879,8 +2014,8 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
-        <v>444.8</v>
+      <c r="B21" t="s">
+        <v>85</v>
       </c>
       <c r="C21">
         <v>444.8</v>
@@ -1944,8 +2079,8 @@
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22">
-        <v>485.2</v>
+      <c r="B22" t="s">
+        <v>86</v>
       </c>
       <c r="C22">
         <v>485.2</v>
@@ -2009,8 +2144,8 @@
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
-        <v>521.4</v>
+      <c r="B23" t="s">
+        <v>87</v>
       </c>
       <c r="C23">
         <v>521.4</v>
@@ -2074,8 +2209,8 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24">
-        <v>547.8</v>
+      <c r="B24" t="s">
+        <v>88</v>
       </c>
       <c r="C24">
         <v>547.8</v>
@@ -2139,8 +2274,8 @@
       <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25">
-        <v>538.2</v>
+      <c r="B25" t="s">
+        <v>89</v>
       </c>
       <c r="C25">
         <v>538.2</v>
@@ -2204,8 +2339,8 @@
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26">
-        <v>544.1</v>
+      <c r="B26" t="s">
+        <v>90</v>
       </c>
       <c r="C26">
         <v>544.1</v>
@@ -2269,8 +2404,8 @@
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
-        <v>590.6</v>
+      <c r="B27" t="s">
+        <v>91</v>
       </c>
       <c r="C27">
         <v>590.6</v>
@@ -2334,8 +2469,8 @@
       <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28">
-        <v>558.1</v>
+      <c r="B28" t="s">
+        <v>92</v>
       </c>
       <c r="C28">
         <v>558.1</v>
@@ -2399,8 +2534,8 @@
       <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="B29">
-        <v>576.5</v>
+      <c r="B29" t="s">
+        <v>93</v>
       </c>
       <c r="C29">
         <v>576.5</v>
@@ -2464,8 +2599,8 @@
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30">
-        <v>608.4</v>
+      <c r="B30" t="s">
+        <v>94</v>
       </c>
       <c r="C30">
         <v>608.4</v>
@@ -2529,8 +2664,8 @@
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31">
-        <v>612.3</v>
+      <c r="B31" t="s">
+        <v>95</v>
       </c>
       <c r="C31">
         <v>612.3</v>
@@ -2594,8 +2729,8 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32">
-        <v>615.2</v>
+      <c r="B32" t="s">
+        <v>96</v>
       </c>
       <c r="C32">
         <v>615.2</v>
@@ -2659,8 +2794,8 @@
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B33">
-        <v>736.9</v>
+      <c r="B33" t="s">
+        <v>97</v>
       </c>
       <c r="C33">
         <v>736.9</v>
@@ -2724,8 +2859,8 @@
       <c r="A34" t="s">
         <v>53</v>
       </c>
-      <c r="B34">
-        <v>75.2</v>
+      <c r="B34" t="s">
+        <v>98</v>
       </c>
       <c r="C34">
         <v>75.2</v>
@@ -2776,21 +2911,21 @@
         <v>-7.49</v>
       </c>
       <c r="S34">
-        <v>16.08522727272728</v>
+        <v>16.09</v>
       </c>
       <c r="T34">
         <v>-7.49</v>
       </c>
       <c r="U34">
-        <v>15.95159090909091</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="B35">
-        <v>879.9</v>
+      <c r="B35" t="s">
+        <v>99</v>
       </c>
       <c r="C35">
         <v>879.9</v>
@@ -2854,8 +2989,8 @@
       <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B36">
-        <v>884.3</v>
+      <c r="B36" t="s">
+        <v>100</v>
       </c>
       <c r="C36">
         <v>884.3</v>
@@ -2919,8 +3054,8 @@
       <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37">
-        <v>971.9</v>
+      <c r="B37" t="s">
+        <v>101</v>
       </c>
       <c r="C37">
         <v>971.9</v>
@@ -2984,14 +3119,14 @@
       <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="B38">
-        <v>478.6102777777778</v>
+      <c r="B38" t="s">
+        <v>102</v>
       </c>
       <c r="C38">
         <v>1043.9</v>
       </c>
       <c r="D38">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E38">
         <v>706.8</v>
@@ -3049,14 +3184,14 @@
       <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B39">
-        <v>478.6102777777778</v>
+      <c r="B39" t="s">
+        <v>103</v>
       </c>
       <c r="C39">
         <v>1088</v>
       </c>
       <c r="D39">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E39">
         <v>719.5</v>
@@ -3114,8 +3249,8 @@
       <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B40">
-        <v>478.6102777777778</v>
+      <c r="B40" t="s">
+        <v>104</v>
       </c>
       <c r="C40">
         <v>1126.7</v>
@@ -3179,8 +3314,8 @@
       <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="B41">
-        <v>478.6102777777778</v>
+      <c r="B41" t="s">
+        <v>105</v>
       </c>
       <c r="C41">
         <v>1140.3</v>
@@ -3244,14 +3379,14 @@
       <c r="A42" t="s">
         <v>61</v>
       </c>
-      <c r="B42">
-        <v>478.6102777777778</v>
+      <c r="B42" t="s">
+        <v>106</v>
       </c>
       <c r="C42">
         <v>1219.2</v>
       </c>
       <c r="D42">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E42">
         <v>862</v>
@@ -3309,14 +3444,14 @@
       <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="B43">
-        <v>478.6102777777778</v>
+      <c r="B43" t="s">
+        <v>107</v>
       </c>
       <c r="C43">
         <v>1264.6</v>
       </c>
       <c r="D43">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E43">
         <v>799.7</v>
@@ -3374,14 +3509,14 @@
       <c r="A44" t="s">
         <v>63</v>
       </c>
-      <c r="B44">
-        <v>478.6102777777778</v>
+      <c r="B44" t="s">
+        <v>108</v>
       </c>
       <c r="C44">
         <v>1224.8</v>
       </c>
       <c r="D44">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E44">
         <v>799.2</v>
@@ -3439,14 +3574,14 @@
       <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="B45">
-        <v>478.6102777777778</v>
+      <c r="B45" t="s">
+        <v>109</v>
       </c>
       <c r="C45">
         <v>1209.5</v>
       </c>
       <c r="D45">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E45">
         <v>829.9</v>
@@ -3504,14 +3639,14 @@
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="B46">
-        <v>478.6102777777778</v>
+      <c r="B46" t="s">
+        <v>110</v>
       </c>
       <c r="C46">
         <v>1325.8</v>
       </c>
       <c r="D46">
-        <v>13.21184210526316</v>
+        <v>13.21</v>
       </c>
       <c r="E46">
         <v>967.8</v>
